--- a/advanced_rag_results_test.xlsx
+++ b/advanced_rag_results_test.xlsx
@@ -66,24 +66,22 @@
   </si>
   <si>
     <t>Answer: Using sandboxing technologies to observe behavior
-Explanation: Polymorphic malware is designed to change its code structure, making it difficult for antivirus software to detect and analyze. The most effective technique for identifying the behavior of potential polymorphic malware during malware analysis is using sandboxing technologies. Sandboxes are isolated environments where suspicious files can be executed safely, allowing analysts to observe their behavior without risking damage to the system or network.
-Sandboxing provides a controlled environment in which malware can be analyzed and its behavior monitored. By observing the actions taken by the malware within the sandbox, analysts can identify patterns of behavior that may indicate malicious intent. This includes monitoring for changes in file structure, system calls, network activity, and other potential indicators of compromise.
-While the other options mentioned (passing strings fetched at runtime through a disassembler, intercepting and modifying system calls with the ptrace system call, examining the import address table for unexpected changes) can be useful techniques in certain situations, they are not as effective or comprehensive as using sandboxing technologies for identifying the behavior of potential polymorphic malware.</t>
+Explanation: Using sandboxing technologies to observe behavior is the most effective technique for identifying the behavior of potential polymorphic malware. This approach allows analysts to see how malware operates in a controlled environment, making it possible to observe changes and behaviors without risking the integrity of the host system. Options such as 'Passing strings fetched at runtime through a disassembler' can be circumvented by malware that detects disassembler use. 'Intercepting and modifying system calls with the ptrace system call' might not reveal all behaviors, especially if the malware is aware and can disable or mislead ptrace. 'Examining the import address table for unexpected changes' is useful for static analysis but difficult, not a method of analysis itself.</t>
   </si>
   <si>
     <t>Advanced RAG (Hybrid + Reranked)</t>
   </si>
   <si>
-    <t>cowWhySo-pentest-redteam-steering.md (Chunk: 1341b7ef-18b4-4f51-93c8-22accef7ff54, Type: dense, Rank: 1)
-windows-api-hashing-in-malware.md (Chunk: c7319703-b57f-46cf-9173-d8c30be2d380, Type: dense, Rank: 2)
-suryanshp1-kali-linux-pentesting-data.md (Chunk: 6b5a587a-1f4f-412b-a428-1042661a3925, Type: dense, Rank: 3)
-windows-api-hashing-in-malware.md (Chunk: 33243483-8069-4557-9d84-c1453ea1114d, Type: dense, Rank: 4)
-suryanshp1-kali-linux-pentesting-data.md (Chunk: 15c0e83a-cbd6-4626-8556-6475dd36e90e, Type: dense, Rank: 5)
-suryanshp1-kali-linux-pentesting-data.md (Chunk: 7ebd07d1-c88b-4aa9-9e27-288f01a909b7, Type: dense, Rank: 6)
-suryanshp1-kali-linux-pentesting-data.md (Chunk: a772893e-7e10-4a93-97fc-3f2a69486586, Type: dense, Rank: 7)
-suryanshp1-kali-linux-pentesting-data.md (Chunk: 0a4cd76d-3341-4ebc-ae1e-6b81f17e4ebe, Type: dense, Rank: 8)
-windows-api-hashing-in-malware.md (Chunk: 9d237033-d2e2-4a30-978f-ffadf2a3d5c7, Type: dense, Rank: 9)
-suryanshp1-kali-linux-pentesting-data.md (Chunk: 21eafedb-e20b-40ad-b700-e8ae32f8af26, Type: dense, Rank: 10)</t>
+    <t>preemware_pentestingeval.pdf (Chunk: cf80c07b-fe86-4871-a4bc-f2d865272046, Type: dense, Rank: 1)
+preemware_pentestingeval.pdf (Chunk: 5677865b-0913-4882-b22d-8953304cb0af, Type: dense, Rank: 2)
+preemware_pentestingeval.pdf (Chunk: 8a4f9a51-1702-4d08-a48a-dd5b12cac7e8, Type: dense, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: 04959762-acf0-4790-99fb-7524a2352b4c, Type: dense, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: 04aa2064-124c-4113-89e7-06ca51cd9ed2, Type: dense, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: 54db32bd-27d9-46d8-9de5-8da86ed6b7a9, Type: dense, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: 3342a1f7-6035-41e2-b639-fe04c612dd59, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 85910ce2-6c43-4a0c-80ff-34aad76e9dd5, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: e6fb6d20-9ca3-4e39-a088-85ce208330ed, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: ee64972b-a5c2-4f26-8620-c7e453c7a373, Type: dense, Rank: 10)</t>
   </si>
   <si>
     <t>Semantic: 10, Keyword: 0, Total: 10</t>
@@ -108,25 +106,20 @@
 d. Performing an aggressive scan with default settings</t>
   </si>
   <si>
-    <t>A: When conducting a penetration test, it's essential to avoid detection by network intrusion detection systems (NIDS). The best technique to achieve this is to use a slow, methodical scan technique. This approach involves scanning the target network at a slower pace, which can help evade NIDS that are designed to detect rapid or aggressive scans.
-Slow and methodical scans are less likely to trigger alarms in NIDS because they mimic normal network traffic patterns more closely. By spreading out the scan over an extended period and using techniques like randomized source IP addresses, you can further reduce the likelihood of detection.
-In contrast, the other options may actually increase the chances of being detected:
-- Scanning with all packet fragmentation options: This can trigger alarms in NIDS that are designed to detect fragmented packets.
-- Conducting repeated scans from the same IP address: This can be easily identified as a scan and raise suspicion.
-- Performing an aggressive scan with default settings: This is likely to trigger alarms in NIDS, as it resembles a rapid, intense attack.
-Remember that evading detection during a penetration test should always be done within the scope of written permission and legal boundaries.</t>
-  </si>
-  <si>
-    <t>cowWhySo-pentest-redteam-steering.md (Chunk: de426a71-efe8-438c-8b2a-bb5cf279ddf6, Type: dense, Rank: 1)
-cowWhySo-pentest-redteam-steering.md (Chunk: 0d74d78e-2622-4051-994a-a1f5dc1fa84b, Type: dense, Rank: 2)
-cowWhySo-pentest-redteam-steering.md (Chunk: d3693ce5-9a54-4d3d-907b-d391aeac2024, Type: dense, Rank: 3)
-suryanshp1-kali-linux-pentesting-data.md (Chunk: 08c789e9-6fe2-4b65-9f5c-672b38c6e206, Type: dense, Rank: 4)
-cowWhySo-pentest-redteam-steering.md (Chunk: 37dc871e-173e-4893-9856-ff5a9be3010a, Type: dense, Rank: 5)
-cowWhySo-pentest-redteam-steering.md (Chunk: 5958780c-a54a-4586-bf6b-a67687c1bf89, Type: dense, Rank: 6)
-cowWhySo-pentest-redteam-steering.md (Chunk: 10ab44a6-b630-4fae-84ce-4a34439d57b4, Type: dense, Rank: 7)
-cowWhySo-pentest-redteam-steering.md (Chunk: 9b6d2a15-9af7-4102-bf38-e887af84e376, Type: dense, Rank: 8)
-cowWhySo-pentest-redteam-steering.md (Chunk: 1341b7ef-18b4-4f51-93c8-22accef7ff54, Type: dense, Rank: 9)
-suryanshp1-kali-linux-pentesting-data.md (Chunk: b68a60b5-afbc-4752-b7b8-5dcb178892e3, Type: dense, Rank: 10)</t>
+    <t>Answer: Using a slow, methodical scan technique
+Explanation: Using a slow, methodical scan technique is the best practice among the options to avoid detection by network intrusion detection systems. Slowing down the scan can help in making the traffic appear more like normal user behavior rather than automated scripts, thus blending with regular network traffic and avoiding triggers for anomaly-based detection systems. 'Scanning with all packet fragmentation options' might still be detected by modern IDS capable of reassembling fragmented packets to inspect the full payload. 'Conducting repeated scans from the same IP address' will likely get noticed quickly due to the rapid repetition and consistency, which is unusual for normal user behavior. 'Performing an aggressive scan with default settings' is more likely to trigger alarms as it generates a large amount of traffic and follows standard patterns that IDS systems are designed to detect.</t>
+  </si>
+  <si>
+    <t>preemware_pentestingeval.pdf (Chunk: f53bcf96-b827-40a0-b89b-027325a9a32e, Type: dense, Rank: 1)
+preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 2)
+preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: dense, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: 076aff09-3415-41ea-8059-a0f52827a57d, Type: dense, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: 7e2feb30-1a3a-4b3e-b712-d9cbf873f1a0, Type: dense, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: 1f9e7e89-2183-459e-bd33-2b11366de145, Type: dense, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: a50681c0-06cb-4ca1-821f-95ab56a6e118, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 94e49890-47aa-4ca3-9707-9d1cb00040dc, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 5177461e-afd1-4f30-b34b-33dd723a5123, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: f7e2fa45-f6cc-4891-874c-6a9fc73e7701, Type: dense, Rank: 10)</t>
   </si>
   <si>
     <t>['Using a debugger to manipulate running processes and extract data', 'Creating a custom encryption algorithm for secure communications', 'Executing a buffer overflow attack to gain unauthorized access', 'Employing social engineering tactics to gain initial network access']</t>
@@ -145,21 +138,20 @@
 d. Employing social engineering tactics to gain initial network access</t>
   </si>
   <si>
-    <t>A: The most likely technique used to carry out a privilege escalation attack on a modern Windows operating system in the context of exploit development would be executing a buffer overflow attack to gain unauthorized access. This is because buffer overflow attacks take advantage of vulnerabilities in software or applications that can lead to elevated privileges, such as those found in the Windows kernel.
-Buffer overflow attacks occur when an application writes more data into a memory buffer than it was designed to hold, causing the data to overwrite adjacent memory locations. This can be exploited by injecting malicious code into the affected process, which can then be executed with the same privileges as the user running the program.
-In contrast, using a debugger to manipulate running processes and extract data is more commonly associated with reverse engineering and understanding how software works rather than gaining unauthorized access. Creating a custom encryption algorithm for secure communications is related to cryptography and securing data transmission, not exploit development or privilege escalation. Finally, employing social engineering tactics to gain initial network access is a technique used in phishing attacks and other forms of social engineering, but it does not directly involve exploit development or privilege escalation on a Windows operating system.</t>
-  </si>
-  <si>
-    <t>cowWhySo-pentest-redteam-steering.md (Chunk: 2e8a1379-0fba-4f7a-85eb-7b056917f4e4, Type: dense, Rank: 1)
-cowWhySo-pentest-redteam-steering.md (Chunk: 2fa8fe7f-f321-44f6-85be-f75704ff9974, Type: dense, Rank: 2)
-cowWhySo-pentest-redteam-steering.md (Chunk: 13ada395-dd1a-4edf-a2e1-2da891a263e1, Type: dense, Rank: 3)
-cowWhySo-pentest-redteam-steering.md (Chunk: a51a6d26-c177-466b-aa2a-5de8d47c5fe0, Type: dense, Rank: 4)
-cowWhySo-pentest-redteam-steering.md (Chunk: cbc7a536-fdba-4865-8a42-7b584145799a, Type: dense, Rank: 5)
-cowWhySo-pentest-redteam-steering.md (Chunk: 35cb71f1-4ff9-4877-b911-d338ee000ffe, Type: dense, Rank: 6)
-cowWhySo-pentest-redteam-steering.md (Chunk: fdb9ace2-d2c3-419e-a845-2e85c4c092a9, Type: dense, Rank: 7)
-cowWhySo-pentest-redteam-steering.md (Chunk: 726c1e0b-212c-426e-aa7c-3636c6fa101e, Type: dense, Rank: 8)
-cowWhySo-pentest-redteam-steering.md (Chunk: 255f0562-1314-40fa-a350-2acbb6712fe0, Type: dense, Rank: 9)
-cowWhySo-pentest-redteam-steering.md (Chunk: 8f2bfe25-4737-4420-8ae4-02652bc6fb19, Type: dense, Rank: 10)</t>
+    <t>Answer: Executing a buffer overflow attack to gain unauthorized access
+Explanation: Executing a buffer overflow attack to gain unauthorized access is the most likely technique for carrying out a privilege escalation attack on modern Windows systems. This method involves exploiting software vulnerabilities to overrun a buffer boundary in memory, which can corrupt adjacent memory space and alter the execution path of a process to execute attacker-controlled code with elevated privileges. Option A: Using a debugger to manipulate running processes and extract data</t>
+  </si>
+  <si>
+    <t>preemware_pentestingeval.pdf (Chunk: d6ee2010-4521-4fdb-bc8d-5103053d4db5, Type: dense, Rank: 1)
+cowWhySo-pentest-redteam-steering.md (Chunk: 2e8a1379-0fba-4f7a-85eb-7b056917f4e4, Type: dense, Rank: 2)
+cowWhySo-pentest-redteam-steering.md (Chunk: 2fa8fe7f-f321-44f6-85be-f75704ff9974, Type: dense, Rank: 3)
+cowWhySo-pentest-redteam-steering.md (Chunk: 13ada395-dd1a-4edf-a2e1-2da891a263e1, Type: dense, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: 4ec985eb-6aff-4249-b9e4-0f5c3aad3885, Type: dense, Rank: 5)
+cowWhySo-pentest-redteam-steering.md (Chunk: a51a6d26-c177-466b-aa2a-5de8d47c5fe0, Type: dense, Rank: 6)
+cowWhySo-pentest-redteam-steering.md (Chunk: cbc7a536-fdba-4865-8a42-7b584145799a, Type: dense, Rank: 7)
+cowWhySo-pentest-redteam-steering.md (Chunk: 35cb71f1-4ff9-4877-b911-d338ee000ffe, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: da05222e-12f4-464d-a4cf-e755c02cdecf, Type: dense, Rank: 9)
+cowWhySo-pentest-redteam-steering.md (Chunk: fdb9ace2-d2c3-419e-a845-2e85c4c092a9, Type: dense, Rank: 10)</t>
   </si>
   <si>
     <t>['Heap spraying', 'Stack-based buffer overflow', 'Format string attack', 'Cross-site scripting']</t>
@@ -178,20 +170,20 @@
 d. Cross-site scripting</t>
   </si>
   <si>
-    <t>Expert Analysis: The most commonly utilized technique for manipulating memory layouts to facilitate arbitrary code execution in the context of developing an exploit for a remote code execution vulnerability discovered in a network service is Heap spraying. This technique involves pre-allocating specific data structures or objects on the heap that can be controlled by the attacker, and then triggering a vulnerability to cause the application to allocate memory in a predictable location. By carefully controlling the contents of these allocated objects, an attacker can manipulate the memory layout to facilitate arbitrary code execution.
-Answer: Heap spraying</t>
-  </si>
-  <si>
-    <t>cowWhySo-pentest-redteam-steering.md (Chunk: c018bf29-c592-4729-8529-2711822fffd7, Type: dense, Rank: 1)
-suryanshp1-kali-linux-pentesting-data.md (Chunk: a85aec1c-e24d-4077-bcdf-41f5d9826ac2, Type: dense, Rank: 2)
-cowWhySo-pentest-redteam-steering.md (Chunk: 49db8395-eacd-4581-8237-19ce2f760daf, Type: dense, Rank: 3)
-cowWhySo-pentest-redteam-steering.md (Chunk: aaf9f775-3d35-4ad1-9ac4-27cd8c42835c, Type: dense, Rank: 4)
-cowWhySo-pentest-redteam-steering.md (Chunk: 04d1f163-7a3c-4d6e-bcb8-07447fb394e6, Type: dense, Rank: 5)
-cowWhySo-pentest-redteam-steering.md (Chunk: 2ac37a6f-4745-4cc4-a463-f7b13c0df154, Type: dense, Rank: 6)
-cowWhySo-pentest-redteam-steering.md (Chunk: 56cee5cd-68a7-4aa3-aa8d-f064ac466743, Type: dense, Rank: 7)
-cowWhySo-pentest-redteam-steering.md (Chunk: e83072df-31d9-44a8-ae18-10a87be37eee, Type: dense, Rank: 8)
-cowWhySo-pentest-redteam-steering.md (Chunk: 92e01d63-96fc-4256-8de1-180ac701b09e, Type: dense, Rank: 9)
-4.Post-Exploitation.md (Chunk: ad287094-bb16-4a5e-8416-b0ed5943f5d8, Type: dense, Rank: 10)</t>
+    <t>Answer: Stack-based buffer overflow
+Explanation: In the context of developing an exploit for a remote code execution vulnerability discovered in a network service, stack-based buffer overflows are commonly utilized to manipulate memory layouts and facilitate arbitrary code execution. This technique involves supplying input that overflows the buffer boundaries, allowing an attacker to overwrite the return address of the stack frame. By doing so, the execution flow can be redirected to malicious payloads embedded in the input, effectively achieving remote code execution.</t>
+  </si>
+  <si>
+    <t>preemware_pentestingeval.pdf (Chunk: 0b679bf7-8b92-45d3-bff1-b51eaa493d7f, Type: dense, Rank: 1)
+preemware_pentestingeval.pdf (Chunk: 48095558-19bb-4a42-9c2f-c85be495918f, Type: dense, Rank: 2)
+preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: dense, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: c9e9ff7d-8a8e-4a80-a12c-716d9a3e415c, Type: dense, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: ca893e36-a461-4463-8cb1-5a118bc61c7f, Type: dense, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: d81db727-e5e2-44eb-8aa1-20ab3f8883a1, Type: dense, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: a70f6200-1dd0-4d5f-8b64-aa88d40f5e5e, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 54029d28-0316-4b60-b3a4-46cb1d3ed1b7, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: c8526d10-31df-4fac-9a82-6d9008822382, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 98a0a4b0-83b8-4181-ac2e-6cdf5bbb1ea1, Type: dense, Rank: 10)</t>
   </si>
   <si>
     <t>['Heap spraying', 'ROP chaining', 'DLL injection', 'XSS exploitation']</t>
@@ -210,19 +202,20 @@
 d. XSS exploitation</t>
   </si>
   <si>
-    <t>A: In the context of modern exploit development for bypassing ASLR and DEP, the most effective technique for executing arbitrary code when exploiting a buffer overflow vulnerability is ROP chaining. This technique involves constructing a chain of gadgets from existing code in the program's address space to achieve the desired outcome. The gadgets are typically short sequences of instructions that can be executed independently, allowing an attacker to manipulate the program's control flow and execute arbitrary code. ROP chaining is particularly effective because it does not require direct access to the memory where the exploit payload is stored, making it more difficult for security measures like DEP to detect and prevent.</t>
-  </si>
-  <si>
-    <t>cowWhySo-pentest-redteam-steering.md (Chunk: 161bbefa-f921-4138-90fe-7697803bdba8, Type: dense, Rank: 1)
-rop-chaining-return-oriented-programming.md (Chunk: 1ea1ee50-646e-4d58-a0c3-69c1d46325fd, Type: dense, Rank: 2)
-cowWhySo-pentest-redteam-steering.md (Chunk: ec3709c8-f208-4622-bc3b-892a54080db4, Type: dense, Rank: 3)
-cowWhySo-pentest-redteam-steering.md (Chunk: fbf35eb8-8196-4617-804b-3697dfe70832, Type: dense, Rank: 4)
-cowWhySo-pentest-redteam-steering.md (Chunk: cc22ca69-3cb5-4bc4-903b-dee3cedc7770, Type: dense, Rank: 5)
-cowWhySo-pentest-redteam-steering.md (Chunk: c9f2da8f-97e3-4d37-9ace-2fbd42a5e651, Type: dense, Rank: 6)
-cowWhySo-pentest-redteam-steering.md (Chunk: 24f34d90-377f-489a-a37b-369bc1895a41, Type: dense, Rank: 7)
-cowWhySo-pentest-redteam-steering.md (Chunk: 04224402-f9e1-46cb-9cb9-c64245043cdf, Type: dense, Rank: 8)
-cowWhySo-pentest-redteam-steering.md (Chunk: 555adf71-7da9-458d-baf6-08838f5ed77d, Type: dense, Rank: 9)
-cowWhySo-pentest-redteam-steering.md (Chunk: 6b69f36d-a8bf-429d-a27b-909ff1c76e2a, Type: dense, Rank: 10)</t>
+    <t>Answer: ROP chaining
+Explanation: In the context of modern exploit development for bypassing ASLR and DEP, ROP chaining (Return-Oriented Programming) is the most effective technique for executing arbitrary code when exploiting a buffer overflow vulnerability. This method manipulates the control flow of a program by executing small snippets of code already present in a program's memory (called 'gadgets'), effectively allowing an attacker to execute arbitrary code.</t>
+  </si>
+  <si>
+    <t>preemware_pentestingeval.pdf (Chunk: 0b679bf7-8b92-45d3-bff1-b51eaa493d7f, Type: dense, Rank: 1)
+preemware_pentestingeval.pdf (Chunk: 1690ea12-e09b-40e0-b6aa-debcaf222400, Type: dense, Rank: 2)
+preemware_pentestingeval.pdf (Chunk: 5bc0c5a7-4292-4658-a0ec-676d6c743ab8, Type: dense, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: 885d670c-13eb-480a-b114-6464cb752c48, Type: dense, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: 20364b0e-e2d9-4399-be28-1448664a28eb, Type: dense, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: b09ec26e-5654-4c4b-bb3a-f02c97266fbc, Type: dense, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: 98a0a4b0-83b8-4181-ac2e-6cdf5bbb1ea1, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 0407d467-a3d5-4e44-8abc-61125edf63c7, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 37cafc74-ea7a-4ffa-8b89-f7a19624e678, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: b96549cf-2f25-40ce-8da2-f5c771be36cd, Type: dense, Rank: 10)</t>
   </si>
 </sst>
 </file>
@@ -623,10 +616,10 @@
   <cols>
     <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="41.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.719285714285713" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="62.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="65.005" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
